--- a/AccountsOverview/test-input/Testdata.xlsx
+++ b/AccountsOverview/test-input/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42F200-A596-4A88-B686-72A4B6534487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA4B54-8500-4BEF-B0D2-3C697106BA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>Samarth123</t>
+    <t>Samarth1234</t>
   </si>
 </sst>
 </file>

--- a/AccountsOverview/test-input/Testdata.xlsx
+++ b/AccountsOverview/test-input/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA4B54-8500-4BEF-B0D2-3C697106BA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D612433D-C131-4ED7-B8D4-89D4F2C55BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>FirstName</t>
   </si>
@@ -76,20 +76,158 @@
     <t>1234</t>
   </si>
   <si>
-    <t>Samarth1234</t>
+    <t>AmountToBeTransferred</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterFundTransfer</t>
+  </si>
+  <si>
+    <t>Transfer Complete!</t>
+  </si>
+  <si>
+    <t>PayeeName</t>
+  </si>
+  <si>
+    <t>PayeeAddress</t>
+  </si>
+  <si>
+    <t>PayeeCity</t>
+  </si>
+  <si>
+    <t>PayeeState</t>
+  </si>
+  <si>
+    <t>PayeeZipcode</t>
+  </si>
+  <si>
+    <t>PayeePhone</t>
+  </si>
+  <si>
+    <t>PayeeVerifyAccountNumber</t>
+  </si>
+  <si>
+    <t>PayeeAccountNumber</t>
+  </si>
+  <si>
+    <t>PayeeAmountTransfer</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Celosia Apartments</t>
+  </si>
+  <si>
+    <t>500044</t>
+  </si>
+  <si>
+    <t>9160389471</t>
+  </si>
+  <si>
+    <t>51205</t>
+  </si>
+  <si>
+    <t>Bill Payment Complete</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterBillPayment</t>
+  </si>
+  <si>
+    <t>FindTransactionByAmount</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterFindTransactions</t>
+  </si>
+  <si>
+    <t>Transaction Results</t>
+  </si>
+  <si>
+    <t>UpdateFirstName</t>
+  </si>
+  <si>
+    <t>UpdateLastName</t>
+  </si>
+  <si>
+    <t>UpdateAddress</t>
+  </si>
+  <si>
+    <t>UpdateCity</t>
+  </si>
+  <si>
+    <t>UpdateState</t>
+  </si>
+  <si>
+    <t>UpdateZipcode</t>
+  </si>
+  <si>
+    <t>UpdatePhoneNumber</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterUpdatingContactInfo</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>Temple Tree Apartments</t>
+  </si>
+  <si>
+    <t>Secunderbad</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>500098</t>
+  </si>
+  <si>
+    <t>89787989987</t>
+  </si>
+  <si>
+    <t>Profile Updated</t>
+  </si>
+  <si>
+    <t>LoanAmount</t>
+  </si>
+  <si>
+    <t>DownpaymentAmount</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterApplyingLoan</t>
+  </si>
+  <si>
+    <t>Loan Request Processed</t>
+  </si>
+  <si>
+    <t>prithvi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,10 +250,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -404,7 +543,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="44.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -478,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +625,207 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/AccountsOverview/test-input/Testdata.xlsx
+++ b/AccountsOverview/test-input/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D612433D-C131-4ED7-B8D4-89D4F2C55BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469437E0-0DF8-4EFF-B54F-AC9DC17D11B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>FirstName</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>prithvi</t>
+  </si>
+  <si>
+    <t>ExpectedTitleAfterOpeningAccount</t>
+  </si>
+  <si>
+    <t>Account Opened!</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,79 +636,79 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>35</v>
@@ -710,121 +716,129 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
